--- a/CSVValidator/badania/results.xlsx
+++ b/CSVValidator/badania/results.xlsx
@@ -563,19 +563,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="DejaVu Sans"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
@@ -637,10 +635,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -655,6 +654,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -695,7 +703,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$3:$C$61</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>1.199</c:v>
@@ -916,10 +924,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -934,6 +943,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -971,7 +989,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$122:$C$181</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>8.667</c:v>
@@ -1192,10 +1210,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -1210,6 +1229,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1250,7 +1278,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$242:$C$301</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>32.949</c:v>
@@ -1474,10 +1502,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -1492,6 +1521,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1532,7 +1570,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$362:$C$421</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>1.364</c:v>
@@ -1750,10 +1788,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -1768,6 +1807,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1796,7 +1844,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$482:$C$541</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>9.24</c:v>
@@ -1951,10 +1999,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -1969,6 +2018,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2006,7 +2064,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$62:$C$121</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>7.439</c:v>
@@ -2233,10 +2291,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -2251,6 +2310,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2291,7 +2359,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$182:$C$241</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>23.756</c:v>
@@ -2518,10 +2586,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -2536,6 +2605,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2576,7 +2654,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$302:$C$361</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>88.812</c:v>
@@ -2803,10 +2881,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -2821,6 +2900,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2861,7 +2949,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$422:$C$481</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>4.329</c:v>
@@ -3088,10 +3176,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -3106,6 +3195,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -3132,11 +3230,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="71257546"/>
-        <c:axId val="37847703"/>
+        <c:axId val="9259113"/>
+        <c:axId val="882428"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71257546"/>
+        <c:axId val="9259113"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,19 +3247,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
@@ -3194,22 +3290,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37847703"/>
+        <c:crossAx val="882428"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37847703"/>
+        <c:axId val="882428"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3231,19 +3328,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
@@ -3276,17 +3371,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71257546"/>
+        <c:crossAx val="9259113"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3313,10 +3409,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="Arial"/>
               <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
@@ -3350,19 +3447,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="DejaVu Sans"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
@@ -3424,10 +3519,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -3442,6 +3538,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -3482,7 +3587,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$3:$C$61</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>1.199</c:v>
@@ -3703,10 +3808,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -3721,6 +3827,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -3758,7 +3873,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$122:$C$181</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>8.667</c:v>
@@ -3979,10 +4094,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -3997,6 +4113,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -4037,7 +4162,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$242:$C$301</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>32.949</c:v>
@@ -4261,10 +4386,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -4279,6 +4405,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -4319,7 +4454,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$362:$C$421</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>1.364</c:v>
@@ -4537,10 +4672,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -4555,6 +4691,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -4583,7 +4728,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$482:$C$541</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>9.24</c:v>
@@ -4738,10 +4883,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -4756,6 +4902,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -4793,7 +4948,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$62:$C$121</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>7.439</c:v>
@@ -5020,10 +5175,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -5038,6 +5194,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5078,7 +5243,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$182:$C$241</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>23.756</c:v>
@@ -5305,10 +5470,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -5323,6 +5489,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5363,7 +5538,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$302:$C$361</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>88.812</c:v>
@@ -5590,10 +5765,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -5608,6 +5784,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5648,7 +5833,7 @@
             <c:numRef>
               <c:f>'Tabela przestawna_results_1'!$C$422:$C$481</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>4.329</c:v>
@@ -5875,10 +6060,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -5893,6 +6079,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5919,11 +6114,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="39550786"/>
-        <c:axId val="3010443"/>
+        <c:axId val="82348778"/>
+        <c:axId val="90720871"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39550786"/>
+        <c:axId val="82348778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5936,19 +6131,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
@@ -5981,22 +6174,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3010443"/>
+        <c:crossAx val="90720871"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3010443"/>
+        <c:axId val="90720871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6018,19 +6212,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
@@ -6063,17 +6255,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39550786"/>
+        <c:crossAx val="82348778"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6100,10 +6293,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="Arial"/>
               <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
@@ -6137,19 +6331,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="DejaVu Sans"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
@@ -6211,10 +6403,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -6229,6 +6422,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -6349,10 +6551,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -6367,6 +6570,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -6487,10 +6699,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -6505,6 +6718,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -6625,10 +6847,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -6643,6 +6866,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -6763,10 +6995,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -6781,6 +7014,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -6901,10 +7143,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -6919,6 +7162,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -7039,10 +7291,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -7057,6 +7310,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -7177,10 +7439,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -7195,6 +7458,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -7315,10 +7587,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -7333,6 +7606,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -7453,10 +7735,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -7471,6 +7754,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -7551,11 +7843,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="69130586"/>
-        <c:axId val="54033906"/>
+        <c:axId val="16631513"/>
+        <c:axId val="40310849"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69130586"/>
+        <c:axId val="16631513"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -7570,19 +7862,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
@@ -7615,22 +7905,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54033906"/>
+        <c:crossAx val="40310849"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54033906"/>
+        <c:axId val="40310849"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7652,19 +7943,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
@@ -7697,17 +7986,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69130586"/>
+        <c:crossAx val="16631513"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7734,10 +8024,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="Arial"/>
               <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
@@ -7771,19 +8062,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="DejaVu Sans"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
@@ -7845,10 +8134,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -7863,6 +8153,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -7983,10 +8282,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -8001,6 +8301,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -8121,10 +8430,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -8139,6 +8449,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -8259,10 +8578,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -8277,6 +8597,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -8397,10 +8726,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -8415,6 +8745,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -8535,10 +8874,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -8553,6 +8893,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -8673,10 +9022,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -8691,6 +9041,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -8811,10 +9170,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -8829,6 +9189,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -8949,10 +9318,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -8967,6 +9337,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -9087,10 +9466,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -9105,6 +9485,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -9185,11 +9574,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34960283"/>
-        <c:axId val="34058777"/>
+        <c:axId val="37011695"/>
+        <c:axId val="11164225"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34960283"/>
+        <c:axId val="37011695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -9204,19 +9593,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
@@ -9249,22 +9636,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34058777"/>
+        <c:crossAx val="11164225"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34058777"/>
+        <c:axId val="11164225"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9286,19 +9674,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
@@ -9331,17 +9717,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34960283"/>
+        <c:crossAx val="37011695"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9368,10 +9755,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="Arial"/>
               <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
@@ -9405,19 +9793,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="DejaVu Sans"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
@@ -9479,10 +9865,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -9497,6 +9884,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -9599,10 +9995,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -9617,6 +10014,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -9679,11 +10085,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="29298170"/>
-        <c:axId val="8956220"/>
+        <c:axId val="85881480"/>
+        <c:axId val="15971586"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="29298170"/>
+        <c:axId val="85881480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -9698,19 +10104,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
@@ -9743,22 +10147,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8956220"/>
+        <c:crossAx val="15971586"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8956220"/>
+        <c:axId val="15971586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9780,19 +10185,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
@@ -9825,17 +10228,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29298170"/>
+        <c:crossAx val="85881480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9862,10 +10266,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="Arial"/>
               <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
@@ -9899,19 +10304,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="DejaVu Sans"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
@@ -9973,10 +10376,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -9991,6 +10395,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -10093,10 +10506,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
@@ -10111,6 +10525,15 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="28800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -10173,11 +10596,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="95688040"/>
-        <c:axId val="20787554"/>
+        <c:axId val="48791728"/>
+        <c:axId val="15508109"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95688040"/>
+        <c:axId val="48791728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4400"/>
@@ -10192,19 +10615,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
@@ -10237,22 +10658,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20787554"/>
+        <c:crossAx val="15508109"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="20787554"/>
+        <c:axId val="15508109"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10274,19 +10696,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
@@ -10319,17 +10739,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95688040"/>
+        <c:crossAx val="48791728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10356,10 +10777,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="Arial"/>
               <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
@@ -10392,9 +10814,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>496800</xdr:colOff>
+      <xdr:colOff>496440</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10403,7 +10825,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8899560" y="833040"/>
-        <a:ext cx="8642520" cy="4860720"/>
+        <a:ext cx="8642160" cy="4860360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10422,9 +10844,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>531360</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10433,7 +10855,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8934480" y="6502320"/>
-        <a:ext cx="8642520" cy="4860720"/>
+        <a:ext cx="8642160" cy="4860360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10457,9 +10879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>506520</xdr:colOff>
+      <xdr:colOff>506160</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10468,7 +10890,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8927640" y="487800"/>
-        <a:ext cx="8642520" cy="4860720"/>
+        <a:ext cx="8642160" cy="4860360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10487,9 +10909,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>522000</xdr:colOff>
+      <xdr:colOff>521640</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10498,7 +10920,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8943120" y="6065280"/>
-        <a:ext cx="8642520" cy="4860720"/>
+        <a:ext cx="8642160" cy="4860360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10522,9 +10944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>503280</xdr:colOff>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10533,7 +10955,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9108360" y="650160"/>
-        <a:ext cx="8642880" cy="4860720"/>
+        <a:ext cx="8642520" cy="4860360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10552,9 +10974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>515880</xdr:colOff>
+      <xdr:colOff>515520</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10563,7 +10985,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9120960" y="5903280"/>
-        <a:ext cx="8642880" cy="4860720"/>
+        <a:ext cx="8642520" cy="4860360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16560,6 +16982,1567 @@
     <field x="2"/>
     <field x="3"/>
   </rowFields>
+  <rowItems count="518">
+    <i>
+      <x v="0"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="125"/>
+    </i>
+    <i>
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i>
+      <x v="128"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="131"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="134"/>
+    </i>
+    <i>
+      <x v="135"/>
+    </i>
+    <i>
+      <x v="136"/>
+    </i>
+    <i>
+      <x v="137"/>
+    </i>
+    <i>
+      <x v="138"/>
+    </i>
+    <i>
+      <x v="139"/>
+    </i>
+    <i>
+      <x v="140"/>
+    </i>
+    <i>
+      <x v="141"/>
+    </i>
+    <i>
+      <x v="142"/>
+    </i>
+    <i>
+      <x v="143"/>
+    </i>
+    <i>
+      <x v="144"/>
+    </i>
+    <i>
+      <x v="145"/>
+    </i>
+    <i>
+      <x v="146"/>
+    </i>
+    <i>
+      <x v="147"/>
+    </i>
+    <i>
+      <x v="148"/>
+    </i>
+    <i>
+      <x v="149"/>
+    </i>
+    <i>
+      <x v="150"/>
+    </i>
+    <i>
+      <x v="151"/>
+    </i>
+    <i>
+      <x v="152"/>
+    </i>
+    <i>
+      <x v="153"/>
+    </i>
+    <i>
+      <x v="154"/>
+    </i>
+    <i>
+      <x v="155"/>
+    </i>
+    <i>
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="157"/>
+    </i>
+    <i>
+      <x v="158"/>
+    </i>
+    <i>
+      <x v="159"/>
+    </i>
+    <i>
+      <x v="160"/>
+    </i>
+    <i>
+      <x v="161"/>
+    </i>
+    <i>
+      <x v="162"/>
+    </i>
+    <i>
+      <x v="163"/>
+    </i>
+    <i>
+      <x v="164"/>
+    </i>
+    <i>
+      <x v="165"/>
+    </i>
+    <i>
+      <x v="166"/>
+    </i>
+    <i>
+      <x v="167"/>
+    </i>
+    <i>
+      <x v="168"/>
+    </i>
+    <i>
+      <x v="169"/>
+    </i>
+    <i>
+      <x v="170"/>
+    </i>
+    <i>
+      <x v="171"/>
+    </i>
+    <i>
+      <x v="172"/>
+    </i>
+    <i>
+      <x v="173"/>
+    </i>
+    <i>
+      <x v="174"/>
+    </i>
+    <i>
+      <x v="175"/>
+    </i>
+    <i>
+      <x v="176"/>
+    </i>
+    <i>
+      <x v="177"/>
+    </i>
+    <i>
+      <x v="178"/>
+    </i>
+    <i>
+      <x v="179"/>
+    </i>
+    <i>
+      <x v="180"/>
+    </i>
+    <i>
+      <x v="181"/>
+    </i>
+    <i>
+      <x v="182"/>
+    </i>
+    <i>
+      <x v="183"/>
+    </i>
+    <i>
+      <x v="184"/>
+    </i>
+    <i>
+      <x v="185"/>
+    </i>
+    <i>
+      <x v="186"/>
+    </i>
+    <i>
+      <x v="187"/>
+    </i>
+    <i>
+      <x v="188"/>
+    </i>
+    <i>
+      <x v="189"/>
+    </i>
+    <i>
+      <x v="190"/>
+    </i>
+    <i>
+      <x v="191"/>
+    </i>
+    <i>
+      <x v="192"/>
+    </i>
+    <i>
+      <x v="193"/>
+    </i>
+    <i>
+      <x v="194"/>
+    </i>
+    <i>
+      <x v="195"/>
+    </i>
+    <i>
+      <x v="196"/>
+    </i>
+    <i>
+      <x v="197"/>
+    </i>
+    <i>
+      <x v="198"/>
+    </i>
+    <i>
+      <x v="199"/>
+    </i>
+    <i>
+      <x v="200"/>
+    </i>
+    <i>
+      <x v="201"/>
+    </i>
+    <i>
+      <x v="202"/>
+    </i>
+    <i>
+      <x v="203"/>
+    </i>
+    <i>
+      <x v="204"/>
+    </i>
+    <i>
+      <x v="205"/>
+    </i>
+    <i>
+      <x v="206"/>
+    </i>
+    <i>
+      <x v="207"/>
+    </i>
+    <i>
+      <x v="208"/>
+    </i>
+    <i>
+      <x v="209"/>
+    </i>
+    <i>
+      <x v="210"/>
+    </i>
+    <i>
+      <x v="211"/>
+    </i>
+    <i>
+      <x v="212"/>
+    </i>
+    <i>
+      <x v="213"/>
+    </i>
+    <i>
+      <x v="214"/>
+    </i>
+    <i>
+      <x v="215"/>
+    </i>
+    <i>
+      <x v="216"/>
+    </i>
+    <i>
+      <x v="217"/>
+    </i>
+    <i>
+      <x v="218"/>
+    </i>
+    <i>
+      <x v="219"/>
+    </i>
+    <i>
+      <x v="220"/>
+    </i>
+    <i>
+      <x v="221"/>
+    </i>
+    <i>
+      <x v="222"/>
+    </i>
+    <i>
+      <x v="223"/>
+    </i>
+    <i>
+      <x v="224"/>
+    </i>
+    <i>
+      <x v="225"/>
+    </i>
+    <i>
+      <x v="226"/>
+    </i>
+    <i>
+      <x v="227"/>
+    </i>
+    <i>
+      <x v="228"/>
+    </i>
+    <i>
+      <x v="229"/>
+    </i>
+    <i>
+      <x v="230"/>
+    </i>
+    <i>
+      <x v="231"/>
+    </i>
+    <i>
+      <x v="232"/>
+    </i>
+    <i>
+      <x v="233"/>
+    </i>
+    <i>
+      <x v="234"/>
+    </i>
+    <i>
+      <x v="235"/>
+    </i>
+    <i>
+      <x v="236"/>
+    </i>
+    <i>
+      <x v="237"/>
+    </i>
+    <i>
+      <x v="238"/>
+    </i>
+    <i>
+      <x v="239"/>
+    </i>
+    <i>
+      <x v="240"/>
+    </i>
+    <i>
+      <x v="241"/>
+    </i>
+    <i>
+      <x v="242"/>
+    </i>
+    <i>
+      <x v="243"/>
+    </i>
+    <i>
+      <x v="244"/>
+    </i>
+    <i>
+      <x v="245"/>
+    </i>
+    <i>
+      <x v="246"/>
+    </i>
+    <i>
+      <x v="247"/>
+    </i>
+    <i>
+      <x v="248"/>
+    </i>
+    <i>
+      <x v="249"/>
+    </i>
+    <i>
+      <x v="250"/>
+    </i>
+    <i>
+      <x v="251"/>
+    </i>
+    <i>
+      <x v="252"/>
+    </i>
+    <i>
+      <x v="253"/>
+    </i>
+    <i>
+      <x v="254"/>
+    </i>
+    <i>
+      <x v="255"/>
+    </i>
+    <i>
+      <x v="256"/>
+    </i>
+    <i>
+      <x v="257"/>
+    </i>
+    <i>
+      <x v="258"/>
+    </i>
+    <i>
+      <x v="259"/>
+    </i>
+    <i>
+      <x v="260"/>
+    </i>
+    <i>
+      <x v="261"/>
+    </i>
+    <i>
+      <x v="262"/>
+    </i>
+    <i>
+      <x v="263"/>
+    </i>
+    <i>
+      <x v="264"/>
+    </i>
+    <i>
+      <x v="265"/>
+    </i>
+    <i>
+      <x v="266"/>
+    </i>
+    <i>
+      <x v="267"/>
+    </i>
+    <i>
+      <x v="268"/>
+    </i>
+    <i>
+      <x v="269"/>
+    </i>
+    <i>
+      <x v="270"/>
+    </i>
+    <i>
+      <x v="271"/>
+    </i>
+    <i>
+      <x v="272"/>
+    </i>
+    <i>
+      <x v="273"/>
+    </i>
+    <i>
+      <x v="274"/>
+    </i>
+    <i>
+      <x v="275"/>
+    </i>
+    <i>
+      <x v="276"/>
+    </i>
+    <i>
+      <x v="277"/>
+    </i>
+    <i>
+      <x v="278"/>
+    </i>
+    <i>
+      <x v="279"/>
+    </i>
+    <i>
+      <x v="280"/>
+    </i>
+    <i>
+      <x v="281"/>
+    </i>
+    <i>
+      <x v="282"/>
+    </i>
+    <i>
+      <x v="283"/>
+    </i>
+    <i>
+      <x v="284"/>
+    </i>
+    <i>
+      <x v="285"/>
+    </i>
+    <i>
+      <x v="286"/>
+    </i>
+    <i>
+      <x v="287"/>
+    </i>
+    <i>
+      <x v="288"/>
+    </i>
+    <i>
+      <x v="289"/>
+    </i>
+    <i>
+      <x v="290"/>
+    </i>
+    <i>
+      <x v="291"/>
+    </i>
+    <i>
+      <x v="292"/>
+    </i>
+    <i>
+      <x v="293"/>
+    </i>
+    <i>
+      <x v="294"/>
+    </i>
+    <i>
+      <x v="295"/>
+    </i>
+    <i>
+      <x v="296"/>
+    </i>
+    <i>
+      <x v="297"/>
+    </i>
+    <i>
+      <x v="298"/>
+    </i>
+    <i>
+      <x v="299"/>
+    </i>
+    <i>
+      <x v="300"/>
+    </i>
+    <i>
+      <x v="301"/>
+    </i>
+    <i>
+      <x v="302"/>
+    </i>
+    <i>
+      <x v="303"/>
+    </i>
+    <i>
+      <x v="304"/>
+    </i>
+    <i>
+      <x v="305"/>
+    </i>
+    <i>
+      <x v="306"/>
+    </i>
+    <i>
+      <x v="307"/>
+    </i>
+    <i>
+      <x v="308"/>
+    </i>
+    <i>
+      <x v="309"/>
+    </i>
+    <i>
+      <x v="310"/>
+    </i>
+    <i>
+      <x v="311"/>
+    </i>
+    <i>
+      <x v="312"/>
+    </i>
+    <i>
+      <x v="313"/>
+    </i>
+    <i>
+      <x v="314"/>
+    </i>
+    <i>
+      <x v="315"/>
+    </i>
+    <i>
+      <x v="316"/>
+    </i>
+    <i>
+      <x v="317"/>
+    </i>
+    <i>
+      <x v="318"/>
+    </i>
+    <i>
+      <x v="319"/>
+    </i>
+    <i>
+      <x v="320"/>
+    </i>
+    <i>
+      <x v="321"/>
+    </i>
+    <i>
+      <x v="322"/>
+    </i>
+    <i>
+      <x v="323"/>
+    </i>
+    <i>
+      <x v="324"/>
+    </i>
+    <i>
+      <x v="325"/>
+    </i>
+    <i>
+      <x v="326"/>
+    </i>
+    <i>
+      <x v="327"/>
+    </i>
+    <i>
+      <x v="328"/>
+    </i>
+    <i>
+      <x v="329"/>
+    </i>
+    <i>
+      <x v="330"/>
+    </i>
+    <i>
+      <x v="331"/>
+    </i>
+    <i>
+      <x v="332"/>
+    </i>
+    <i>
+      <x v="333"/>
+    </i>
+    <i>
+      <x v="334"/>
+    </i>
+    <i>
+      <x v="335"/>
+    </i>
+    <i>
+      <x v="336"/>
+    </i>
+    <i>
+      <x v="337"/>
+    </i>
+    <i>
+      <x v="338"/>
+    </i>
+    <i>
+      <x v="339"/>
+    </i>
+    <i>
+      <x v="340"/>
+    </i>
+    <i>
+      <x v="341"/>
+    </i>
+    <i>
+      <x v="342"/>
+    </i>
+    <i>
+      <x v="343"/>
+    </i>
+    <i>
+      <x v="344"/>
+    </i>
+    <i>
+      <x v="345"/>
+    </i>
+    <i>
+      <x v="346"/>
+    </i>
+    <i>
+      <x v="347"/>
+    </i>
+    <i>
+      <x v="348"/>
+    </i>
+    <i>
+      <x v="349"/>
+    </i>
+    <i>
+      <x v="350"/>
+    </i>
+    <i>
+      <x v="351"/>
+    </i>
+    <i>
+      <x v="352"/>
+    </i>
+    <i>
+      <x v="353"/>
+    </i>
+    <i>
+      <x v="354"/>
+    </i>
+    <i>
+      <x v="355"/>
+    </i>
+    <i>
+      <x v="356"/>
+    </i>
+    <i>
+      <x v="357"/>
+    </i>
+    <i>
+      <x v="358"/>
+    </i>
+    <i>
+      <x v="359"/>
+    </i>
+    <i>
+      <x v="360"/>
+    </i>
+    <i>
+      <x v="361"/>
+    </i>
+    <i>
+      <x v="362"/>
+    </i>
+    <i>
+      <x v="363"/>
+    </i>
+    <i>
+      <x v="364"/>
+    </i>
+    <i>
+      <x v="365"/>
+    </i>
+    <i>
+      <x v="366"/>
+    </i>
+    <i>
+      <x v="367"/>
+    </i>
+    <i>
+      <x v="368"/>
+    </i>
+    <i>
+      <x v="369"/>
+    </i>
+    <i>
+      <x v="370"/>
+    </i>
+    <i>
+      <x v="371"/>
+    </i>
+    <i>
+      <x v="372"/>
+    </i>
+    <i>
+      <x v="373"/>
+    </i>
+    <i>
+      <x v="374"/>
+    </i>
+    <i>
+      <x v="375"/>
+    </i>
+    <i>
+      <x v="376"/>
+    </i>
+    <i>
+      <x v="377"/>
+    </i>
+    <i>
+      <x v="378"/>
+    </i>
+    <i>
+      <x v="379"/>
+    </i>
+    <i>
+      <x v="380"/>
+    </i>
+    <i>
+      <x v="381"/>
+    </i>
+    <i>
+      <x v="382"/>
+    </i>
+    <i>
+      <x v="383"/>
+    </i>
+    <i>
+      <x v="384"/>
+    </i>
+    <i>
+      <x v="385"/>
+    </i>
+    <i>
+      <x v="386"/>
+    </i>
+    <i>
+      <x v="387"/>
+    </i>
+    <i>
+      <x v="388"/>
+    </i>
+    <i>
+      <x v="389"/>
+    </i>
+    <i>
+      <x v="390"/>
+    </i>
+    <i>
+      <x v="391"/>
+    </i>
+    <i>
+      <x v="392"/>
+    </i>
+    <i>
+      <x v="393"/>
+    </i>
+    <i>
+      <x v="394"/>
+    </i>
+    <i>
+      <x v="395"/>
+    </i>
+    <i>
+      <x v="396"/>
+    </i>
+    <i>
+      <x v="397"/>
+    </i>
+    <i>
+      <x v="398"/>
+    </i>
+    <i>
+      <x v="399"/>
+    </i>
+    <i>
+      <x v="400"/>
+    </i>
+    <i>
+      <x v="401"/>
+    </i>
+    <i>
+      <x v="402"/>
+    </i>
+    <i>
+      <x v="403"/>
+    </i>
+    <i>
+      <x v="404"/>
+    </i>
+    <i>
+      <x v="405"/>
+    </i>
+    <i>
+      <x v="406"/>
+    </i>
+    <i>
+      <x v="407"/>
+    </i>
+    <i>
+      <x v="408"/>
+    </i>
+    <i>
+      <x v="409"/>
+    </i>
+    <i>
+      <x v="410"/>
+    </i>
+    <i>
+      <x v="411"/>
+    </i>
+    <i>
+      <x v="412"/>
+    </i>
+    <i>
+      <x v="413"/>
+    </i>
+    <i>
+      <x v="414"/>
+    </i>
+    <i>
+      <x v="415"/>
+    </i>
+    <i>
+      <x v="416"/>
+    </i>
+    <i>
+      <x v="417"/>
+    </i>
+    <i>
+      <x v="418"/>
+    </i>
+    <i>
+      <x v="419"/>
+    </i>
+    <i>
+      <x v="420"/>
+    </i>
+    <i>
+      <x v="421"/>
+    </i>
+    <i>
+      <x v="422"/>
+    </i>
+    <i>
+      <x v="423"/>
+    </i>
+    <i>
+      <x v="424"/>
+    </i>
+    <i>
+      <x v="425"/>
+    </i>
+    <i>
+      <x v="426"/>
+    </i>
+    <i>
+      <x v="427"/>
+    </i>
+    <i>
+      <x v="428"/>
+    </i>
+    <i>
+      <x v="429"/>
+    </i>
+    <i>
+      <x v="430"/>
+    </i>
+    <i>
+      <x v="431"/>
+    </i>
+    <i>
+      <x v="432"/>
+    </i>
+    <i>
+      <x v="433"/>
+    </i>
+    <i>
+      <x v="434"/>
+    </i>
+    <i>
+      <x v="435"/>
+    </i>
+    <i>
+      <x v="436"/>
+    </i>
+    <i>
+      <x v="437"/>
+    </i>
+    <i>
+      <x v="438"/>
+    </i>
+    <i>
+      <x v="439"/>
+    </i>
+    <i>
+      <x v="440"/>
+    </i>
+    <i>
+      <x v="441"/>
+    </i>
+    <i>
+      <x v="442"/>
+    </i>
+    <i>
+      <x v="443"/>
+    </i>
+    <i>
+      <x v="444"/>
+    </i>
+    <i>
+      <x v="445"/>
+    </i>
+    <i>
+      <x v="446"/>
+    </i>
+    <i>
+      <x v="447"/>
+    </i>
+    <i>
+      <x v="448"/>
+    </i>
+    <i>
+      <x v="449"/>
+    </i>
+    <i>
+      <x v="450"/>
+    </i>
+    <i>
+      <x v="451"/>
+    </i>
+    <i>
+      <x v="452"/>
+    </i>
+    <i>
+      <x v="453"/>
+    </i>
+    <i>
+      <x v="454"/>
+    </i>
+    <i>
+      <x v="455"/>
+    </i>
+    <i>
+      <x v="456"/>
+    </i>
+    <i>
+      <x v="457"/>
+    </i>
+    <i>
+      <x v="458"/>
+    </i>
+    <i>
+      <x v="459"/>
+    </i>
+    <i>
+      <x v="460"/>
+    </i>
+    <i>
+      <x v="461"/>
+    </i>
+    <i>
+      <x v="462"/>
+    </i>
+    <i>
+      <x v="463"/>
+    </i>
+    <i>
+      <x v="464"/>
+    </i>
+    <i>
+      <x v="465"/>
+    </i>
+    <i>
+      <x v="466"/>
+    </i>
+    <i>
+      <x v="467"/>
+    </i>
+    <i>
+      <x v="468"/>
+    </i>
+    <i>
+      <x v="469"/>
+    </i>
+    <i>
+      <x v="470"/>
+    </i>
+    <i>
+      <x v="471"/>
+    </i>
+    <i>
+      <x v="472"/>
+    </i>
+    <i>
+      <x v="473"/>
+    </i>
+    <i>
+      <x v="474"/>
+    </i>
+    <i>
+      <x v="475"/>
+    </i>
+    <i>
+      <x v="476"/>
+    </i>
+    <i>
+      <x v="477"/>
+    </i>
+    <i>
+      <x v="478"/>
+    </i>
+    <i>
+      <x v="479"/>
+    </i>
+    <i>
+      <x v="480"/>
+    </i>
+    <i>
+      <x v="481"/>
+    </i>
+    <i>
+      <x v="482"/>
+    </i>
+    <i>
+      <x v="483"/>
+    </i>
+    <i>
+      <x v="484"/>
+    </i>
+    <i>
+      <x v="485"/>
+    </i>
+    <i>
+      <x v="486"/>
+    </i>
+    <i>
+      <x v="487"/>
+    </i>
+    <i>
+      <x v="488"/>
+    </i>
+    <i>
+      <x v="489"/>
+    </i>
+    <i>
+      <x v="490"/>
+    </i>
+    <i>
+      <x v="491"/>
+    </i>
+    <i>
+      <x v="492"/>
+    </i>
+    <i>
+      <x v="493"/>
+    </i>
+    <i>
+      <x v="494"/>
+    </i>
+    <i>
+      <x v="495"/>
+    </i>
+    <i>
+      <x v="496"/>
+    </i>
+    <i>
+      <x v="497"/>
+    </i>
+    <i>
+      <x v="498"/>
+    </i>
+    <i>
+      <x v="499"/>
+    </i>
+    <i>
+      <x v="500"/>
+    </i>
+    <i>
+      <x v="501"/>
+    </i>
+    <i>
+      <x v="502"/>
+    </i>
+    <i>
+      <x v="503"/>
+    </i>
+    <i>
+      <x v="504"/>
+    </i>
+    <i>
+      <x v="505"/>
+    </i>
+    <i>
+      <x v="506"/>
+    </i>
+    <i>
+      <x v="507"/>
+    </i>
+    <i>
+      <x v="508"/>
+    </i>
+    <i>
+      <x v="509"/>
+    </i>
+    <i>
+      <x v="510"/>
+    </i>
+    <i>
+      <x v="511"/>
+    </i>
+    <i>
+      <x v="512"/>
+    </i>
+    <i>
+      <x v="513"/>
+    </i>
+    <i>
+      <x v="514"/>
+    </i>
+    <i>
+      <x v="515"/>
+    </i>
+    <i>
+      <x v="516"/>
+    </i>
+    <i t="grand">
+      <x v="517"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i t="grand">
+      <x v="0"/>
+    </i>
+  </colItems>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
@@ -17754,6 +19737,1567 @@
     <field x="2"/>
     <field x="3"/>
   </rowFields>
+  <rowItems count="518">
+    <i>
+      <x v="0"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="125"/>
+    </i>
+    <i>
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i>
+      <x v="128"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="131"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="134"/>
+    </i>
+    <i>
+      <x v="135"/>
+    </i>
+    <i>
+      <x v="136"/>
+    </i>
+    <i>
+      <x v="137"/>
+    </i>
+    <i>
+      <x v="138"/>
+    </i>
+    <i>
+      <x v="139"/>
+    </i>
+    <i>
+      <x v="140"/>
+    </i>
+    <i>
+      <x v="141"/>
+    </i>
+    <i>
+      <x v="142"/>
+    </i>
+    <i>
+      <x v="143"/>
+    </i>
+    <i>
+      <x v="144"/>
+    </i>
+    <i>
+      <x v="145"/>
+    </i>
+    <i>
+      <x v="146"/>
+    </i>
+    <i>
+      <x v="147"/>
+    </i>
+    <i>
+      <x v="148"/>
+    </i>
+    <i>
+      <x v="149"/>
+    </i>
+    <i>
+      <x v="150"/>
+    </i>
+    <i>
+      <x v="151"/>
+    </i>
+    <i>
+      <x v="152"/>
+    </i>
+    <i>
+      <x v="153"/>
+    </i>
+    <i>
+      <x v="154"/>
+    </i>
+    <i>
+      <x v="155"/>
+    </i>
+    <i>
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="157"/>
+    </i>
+    <i>
+      <x v="158"/>
+    </i>
+    <i>
+      <x v="159"/>
+    </i>
+    <i>
+      <x v="160"/>
+    </i>
+    <i>
+      <x v="161"/>
+    </i>
+    <i>
+      <x v="162"/>
+    </i>
+    <i>
+      <x v="163"/>
+    </i>
+    <i>
+      <x v="164"/>
+    </i>
+    <i>
+      <x v="165"/>
+    </i>
+    <i>
+      <x v="166"/>
+    </i>
+    <i>
+      <x v="167"/>
+    </i>
+    <i>
+      <x v="168"/>
+    </i>
+    <i>
+      <x v="169"/>
+    </i>
+    <i>
+      <x v="170"/>
+    </i>
+    <i>
+      <x v="171"/>
+    </i>
+    <i>
+      <x v="172"/>
+    </i>
+    <i>
+      <x v="173"/>
+    </i>
+    <i>
+      <x v="174"/>
+    </i>
+    <i>
+      <x v="175"/>
+    </i>
+    <i>
+      <x v="176"/>
+    </i>
+    <i>
+      <x v="177"/>
+    </i>
+    <i>
+      <x v="178"/>
+    </i>
+    <i>
+      <x v="179"/>
+    </i>
+    <i>
+      <x v="180"/>
+    </i>
+    <i>
+      <x v="181"/>
+    </i>
+    <i>
+      <x v="182"/>
+    </i>
+    <i>
+      <x v="183"/>
+    </i>
+    <i>
+      <x v="184"/>
+    </i>
+    <i>
+      <x v="185"/>
+    </i>
+    <i>
+      <x v="186"/>
+    </i>
+    <i>
+      <x v="187"/>
+    </i>
+    <i>
+      <x v="188"/>
+    </i>
+    <i>
+      <x v="189"/>
+    </i>
+    <i>
+      <x v="190"/>
+    </i>
+    <i>
+      <x v="191"/>
+    </i>
+    <i>
+      <x v="192"/>
+    </i>
+    <i>
+      <x v="193"/>
+    </i>
+    <i>
+      <x v="194"/>
+    </i>
+    <i>
+      <x v="195"/>
+    </i>
+    <i>
+      <x v="196"/>
+    </i>
+    <i>
+      <x v="197"/>
+    </i>
+    <i>
+      <x v="198"/>
+    </i>
+    <i>
+      <x v="199"/>
+    </i>
+    <i>
+      <x v="200"/>
+    </i>
+    <i>
+      <x v="201"/>
+    </i>
+    <i>
+      <x v="202"/>
+    </i>
+    <i>
+      <x v="203"/>
+    </i>
+    <i>
+      <x v="204"/>
+    </i>
+    <i>
+      <x v="205"/>
+    </i>
+    <i>
+      <x v="206"/>
+    </i>
+    <i>
+      <x v="207"/>
+    </i>
+    <i>
+      <x v="208"/>
+    </i>
+    <i>
+      <x v="209"/>
+    </i>
+    <i>
+      <x v="210"/>
+    </i>
+    <i>
+      <x v="211"/>
+    </i>
+    <i>
+      <x v="212"/>
+    </i>
+    <i>
+      <x v="213"/>
+    </i>
+    <i>
+      <x v="214"/>
+    </i>
+    <i>
+      <x v="215"/>
+    </i>
+    <i>
+      <x v="216"/>
+    </i>
+    <i>
+      <x v="217"/>
+    </i>
+    <i>
+      <x v="218"/>
+    </i>
+    <i>
+      <x v="219"/>
+    </i>
+    <i>
+      <x v="220"/>
+    </i>
+    <i>
+      <x v="221"/>
+    </i>
+    <i>
+      <x v="222"/>
+    </i>
+    <i>
+      <x v="223"/>
+    </i>
+    <i>
+      <x v="224"/>
+    </i>
+    <i>
+      <x v="225"/>
+    </i>
+    <i>
+      <x v="226"/>
+    </i>
+    <i>
+      <x v="227"/>
+    </i>
+    <i>
+      <x v="228"/>
+    </i>
+    <i>
+      <x v="229"/>
+    </i>
+    <i>
+      <x v="230"/>
+    </i>
+    <i>
+      <x v="231"/>
+    </i>
+    <i>
+      <x v="232"/>
+    </i>
+    <i>
+      <x v="233"/>
+    </i>
+    <i>
+      <x v="234"/>
+    </i>
+    <i>
+      <x v="235"/>
+    </i>
+    <i>
+      <x v="236"/>
+    </i>
+    <i>
+      <x v="237"/>
+    </i>
+    <i>
+      <x v="238"/>
+    </i>
+    <i>
+      <x v="239"/>
+    </i>
+    <i>
+      <x v="240"/>
+    </i>
+    <i>
+      <x v="241"/>
+    </i>
+    <i>
+      <x v="242"/>
+    </i>
+    <i>
+      <x v="243"/>
+    </i>
+    <i>
+      <x v="244"/>
+    </i>
+    <i>
+      <x v="245"/>
+    </i>
+    <i>
+      <x v="246"/>
+    </i>
+    <i>
+      <x v="247"/>
+    </i>
+    <i>
+      <x v="248"/>
+    </i>
+    <i>
+      <x v="249"/>
+    </i>
+    <i>
+      <x v="250"/>
+    </i>
+    <i>
+      <x v="251"/>
+    </i>
+    <i>
+      <x v="252"/>
+    </i>
+    <i>
+      <x v="253"/>
+    </i>
+    <i>
+      <x v="254"/>
+    </i>
+    <i>
+      <x v="255"/>
+    </i>
+    <i>
+      <x v="256"/>
+    </i>
+    <i>
+      <x v="257"/>
+    </i>
+    <i>
+      <x v="258"/>
+    </i>
+    <i>
+      <x v="259"/>
+    </i>
+    <i>
+      <x v="260"/>
+    </i>
+    <i>
+      <x v="261"/>
+    </i>
+    <i>
+      <x v="262"/>
+    </i>
+    <i>
+      <x v="263"/>
+    </i>
+    <i>
+      <x v="264"/>
+    </i>
+    <i>
+      <x v="265"/>
+    </i>
+    <i>
+      <x v="266"/>
+    </i>
+    <i>
+      <x v="267"/>
+    </i>
+    <i>
+      <x v="268"/>
+    </i>
+    <i>
+      <x v="269"/>
+    </i>
+    <i>
+      <x v="270"/>
+    </i>
+    <i>
+      <x v="271"/>
+    </i>
+    <i>
+      <x v="272"/>
+    </i>
+    <i>
+      <x v="273"/>
+    </i>
+    <i>
+      <x v="274"/>
+    </i>
+    <i>
+      <x v="275"/>
+    </i>
+    <i>
+      <x v="276"/>
+    </i>
+    <i>
+      <x v="277"/>
+    </i>
+    <i>
+      <x v="278"/>
+    </i>
+    <i>
+      <x v="279"/>
+    </i>
+    <i>
+      <x v="280"/>
+    </i>
+    <i>
+      <x v="281"/>
+    </i>
+    <i>
+      <x v="282"/>
+    </i>
+    <i>
+      <x v="283"/>
+    </i>
+    <i>
+      <x v="284"/>
+    </i>
+    <i>
+      <x v="285"/>
+    </i>
+    <i>
+      <x v="286"/>
+    </i>
+    <i>
+      <x v="287"/>
+    </i>
+    <i>
+      <x v="288"/>
+    </i>
+    <i>
+      <x v="289"/>
+    </i>
+    <i>
+      <x v="290"/>
+    </i>
+    <i>
+      <x v="291"/>
+    </i>
+    <i>
+      <x v="292"/>
+    </i>
+    <i>
+      <x v="293"/>
+    </i>
+    <i>
+      <x v="294"/>
+    </i>
+    <i>
+      <x v="295"/>
+    </i>
+    <i>
+      <x v="296"/>
+    </i>
+    <i>
+      <x v="297"/>
+    </i>
+    <i>
+      <x v="298"/>
+    </i>
+    <i>
+      <x v="299"/>
+    </i>
+    <i>
+      <x v="300"/>
+    </i>
+    <i>
+      <x v="301"/>
+    </i>
+    <i>
+      <x v="302"/>
+    </i>
+    <i>
+      <x v="303"/>
+    </i>
+    <i>
+      <x v="304"/>
+    </i>
+    <i>
+      <x v="305"/>
+    </i>
+    <i>
+      <x v="306"/>
+    </i>
+    <i>
+      <x v="307"/>
+    </i>
+    <i>
+      <x v="308"/>
+    </i>
+    <i>
+      <x v="309"/>
+    </i>
+    <i>
+      <x v="310"/>
+    </i>
+    <i>
+      <x v="311"/>
+    </i>
+    <i>
+      <x v="312"/>
+    </i>
+    <i>
+      <x v="313"/>
+    </i>
+    <i>
+      <x v="314"/>
+    </i>
+    <i>
+      <x v="315"/>
+    </i>
+    <i>
+      <x v="316"/>
+    </i>
+    <i>
+      <x v="317"/>
+    </i>
+    <i>
+      <x v="318"/>
+    </i>
+    <i>
+      <x v="319"/>
+    </i>
+    <i>
+      <x v="320"/>
+    </i>
+    <i>
+      <x v="321"/>
+    </i>
+    <i>
+      <x v="322"/>
+    </i>
+    <i>
+      <x v="323"/>
+    </i>
+    <i>
+      <x v="324"/>
+    </i>
+    <i>
+      <x v="325"/>
+    </i>
+    <i>
+      <x v="326"/>
+    </i>
+    <i>
+      <x v="327"/>
+    </i>
+    <i>
+      <x v="328"/>
+    </i>
+    <i>
+      <x v="329"/>
+    </i>
+    <i>
+      <x v="330"/>
+    </i>
+    <i>
+      <x v="331"/>
+    </i>
+    <i>
+      <x v="332"/>
+    </i>
+    <i>
+      <x v="333"/>
+    </i>
+    <i>
+      <x v="334"/>
+    </i>
+    <i>
+      <x v="335"/>
+    </i>
+    <i>
+      <x v="336"/>
+    </i>
+    <i>
+      <x v="337"/>
+    </i>
+    <i>
+      <x v="338"/>
+    </i>
+    <i>
+      <x v="339"/>
+    </i>
+    <i>
+      <x v="340"/>
+    </i>
+    <i>
+      <x v="341"/>
+    </i>
+    <i>
+      <x v="342"/>
+    </i>
+    <i>
+      <x v="343"/>
+    </i>
+    <i>
+      <x v="344"/>
+    </i>
+    <i>
+      <x v="345"/>
+    </i>
+    <i>
+      <x v="346"/>
+    </i>
+    <i>
+      <x v="347"/>
+    </i>
+    <i>
+      <x v="348"/>
+    </i>
+    <i>
+      <x v="349"/>
+    </i>
+    <i>
+      <x v="350"/>
+    </i>
+    <i>
+      <x v="351"/>
+    </i>
+    <i>
+      <x v="352"/>
+    </i>
+    <i>
+      <x v="353"/>
+    </i>
+    <i>
+      <x v="354"/>
+    </i>
+    <i>
+      <x v="355"/>
+    </i>
+    <i>
+      <x v="356"/>
+    </i>
+    <i>
+      <x v="357"/>
+    </i>
+    <i>
+      <x v="358"/>
+    </i>
+    <i>
+      <x v="359"/>
+    </i>
+    <i>
+      <x v="360"/>
+    </i>
+    <i>
+      <x v="361"/>
+    </i>
+    <i>
+      <x v="362"/>
+    </i>
+    <i>
+      <x v="363"/>
+    </i>
+    <i>
+      <x v="364"/>
+    </i>
+    <i>
+      <x v="365"/>
+    </i>
+    <i>
+      <x v="366"/>
+    </i>
+    <i>
+      <x v="367"/>
+    </i>
+    <i>
+      <x v="368"/>
+    </i>
+    <i>
+      <x v="369"/>
+    </i>
+    <i>
+      <x v="370"/>
+    </i>
+    <i>
+      <x v="371"/>
+    </i>
+    <i>
+      <x v="372"/>
+    </i>
+    <i>
+      <x v="373"/>
+    </i>
+    <i>
+      <x v="374"/>
+    </i>
+    <i>
+      <x v="375"/>
+    </i>
+    <i>
+      <x v="376"/>
+    </i>
+    <i>
+      <x v="377"/>
+    </i>
+    <i>
+      <x v="378"/>
+    </i>
+    <i>
+      <x v="379"/>
+    </i>
+    <i>
+      <x v="380"/>
+    </i>
+    <i>
+      <x v="381"/>
+    </i>
+    <i>
+      <x v="382"/>
+    </i>
+    <i>
+      <x v="383"/>
+    </i>
+    <i>
+      <x v="384"/>
+    </i>
+    <i>
+      <x v="385"/>
+    </i>
+    <i>
+      <x v="386"/>
+    </i>
+    <i>
+      <x v="387"/>
+    </i>
+    <i>
+      <x v="388"/>
+    </i>
+    <i>
+      <x v="389"/>
+    </i>
+    <i>
+      <x v="390"/>
+    </i>
+    <i>
+      <x v="391"/>
+    </i>
+    <i>
+      <x v="392"/>
+    </i>
+    <i>
+      <x v="393"/>
+    </i>
+    <i>
+      <x v="394"/>
+    </i>
+    <i>
+      <x v="395"/>
+    </i>
+    <i>
+      <x v="396"/>
+    </i>
+    <i>
+      <x v="397"/>
+    </i>
+    <i>
+      <x v="398"/>
+    </i>
+    <i>
+      <x v="399"/>
+    </i>
+    <i>
+      <x v="400"/>
+    </i>
+    <i>
+      <x v="401"/>
+    </i>
+    <i>
+      <x v="402"/>
+    </i>
+    <i>
+      <x v="403"/>
+    </i>
+    <i>
+      <x v="404"/>
+    </i>
+    <i>
+      <x v="405"/>
+    </i>
+    <i>
+      <x v="406"/>
+    </i>
+    <i>
+      <x v="407"/>
+    </i>
+    <i>
+      <x v="408"/>
+    </i>
+    <i>
+      <x v="409"/>
+    </i>
+    <i>
+      <x v="410"/>
+    </i>
+    <i>
+      <x v="411"/>
+    </i>
+    <i>
+      <x v="412"/>
+    </i>
+    <i>
+      <x v="413"/>
+    </i>
+    <i>
+      <x v="414"/>
+    </i>
+    <i>
+      <x v="415"/>
+    </i>
+    <i>
+      <x v="416"/>
+    </i>
+    <i>
+      <x v="417"/>
+    </i>
+    <i>
+      <x v="418"/>
+    </i>
+    <i>
+      <x v="419"/>
+    </i>
+    <i>
+      <x v="420"/>
+    </i>
+    <i>
+      <x v="421"/>
+    </i>
+    <i>
+      <x v="422"/>
+    </i>
+    <i>
+      <x v="423"/>
+    </i>
+    <i>
+      <x v="424"/>
+    </i>
+    <i>
+      <x v="425"/>
+    </i>
+    <i>
+      <x v="426"/>
+    </i>
+    <i>
+      <x v="427"/>
+    </i>
+    <i>
+      <x v="428"/>
+    </i>
+    <i>
+      <x v="429"/>
+    </i>
+    <i>
+      <x v="430"/>
+    </i>
+    <i>
+      <x v="431"/>
+    </i>
+    <i>
+      <x v="432"/>
+    </i>
+    <i>
+      <x v="433"/>
+    </i>
+    <i>
+      <x v="434"/>
+    </i>
+    <i>
+      <x v="435"/>
+    </i>
+    <i>
+      <x v="436"/>
+    </i>
+    <i>
+      <x v="437"/>
+    </i>
+    <i>
+      <x v="438"/>
+    </i>
+    <i>
+      <x v="439"/>
+    </i>
+    <i>
+      <x v="440"/>
+    </i>
+    <i>
+      <x v="441"/>
+    </i>
+    <i>
+      <x v="442"/>
+    </i>
+    <i>
+      <x v="443"/>
+    </i>
+    <i>
+      <x v="444"/>
+    </i>
+    <i>
+      <x v="445"/>
+    </i>
+    <i>
+      <x v="446"/>
+    </i>
+    <i>
+      <x v="447"/>
+    </i>
+    <i>
+      <x v="448"/>
+    </i>
+    <i>
+      <x v="449"/>
+    </i>
+    <i>
+      <x v="450"/>
+    </i>
+    <i>
+      <x v="451"/>
+    </i>
+    <i>
+      <x v="452"/>
+    </i>
+    <i>
+      <x v="453"/>
+    </i>
+    <i>
+      <x v="454"/>
+    </i>
+    <i>
+      <x v="455"/>
+    </i>
+    <i>
+      <x v="456"/>
+    </i>
+    <i>
+      <x v="457"/>
+    </i>
+    <i>
+      <x v="458"/>
+    </i>
+    <i>
+      <x v="459"/>
+    </i>
+    <i>
+      <x v="460"/>
+    </i>
+    <i>
+      <x v="461"/>
+    </i>
+    <i>
+      <x v="462"/>
+    </i>
+    <i>
+      <x v="463"/>
+    </i>
+    <i>
+      <x v="464"/>
+    </i>
+    <i>
+      <x v="465"/>
+    </i>
+    <i>
+      <x v="466"/>
+    </i>
+    <i>
+      <x v="467"/>
+    </i>
+    <i>
+      <x v="468"/>
+    </i>
+    <i>
+      <x v="469"/>
+    </i>
+    <i>
+      <x v="470"/>
+    </i>
+    <i>
+      <x v="471"/>
+    </i>
+    <i>
+      <x v="472"/>
+    </i>
+    <i>
+      <x v="473"/>
+    </i>
+    <i>
+      <x v="474"/>
+    </i>
+    <i>
+      <x v="475"/>
+    </i>
+    <i>
+      <x v="476"/>
+    </i>
+    <i>
+      <x v="477"/>
+    </i>
+    <i>
+      <x v="478"/>
+    </i>
+    <i>
+      <x v="479"/>
+    </i>
+    <i>
+      <x v="480"/>
+    </i>
+    <i>
+      <x v="481"/>
+    </i>
+    <i>
+      <x v="482"/>
+    </i>
+    <i>
+      <x v="483"/>
+    </i>
+    <i>
+      <x v="484"/>
+    </i>
+    <i>
+      <x v="485"/>
+    </i>
+    <i>
+      <x v="486"/>
+    </i>
+    <i>
+      <x v="487"/>
+    </i>
+    <i>
+      <x v="488"/>
+    </i>
+    <i>
+      <x v="489"/>
+    </i>
+    <i>
+      <x v="490"/>
+    </i>
+    <i>
+      <x v="491"/>
+    </i>
+    <i>
+      <x v="492"/>
+    </i>
+    <i>
+      <x v="493"/>
+    </i>
+    <i>
+      <x v="494"/>
+    </i>
+    <i>
+      <x v="495"/>
+    </i>
+    <i>
+      <x v="496"/>
+    </i>
+    <i>
+      <x v="497"/>
+    </i>
+    <i>
+      <x v="498"/>
+    </i>
+    <i>
+      <x v="499"/>
+    </i>
+    <i>
+      <x v="500"/>
+    </i>
+    <i>
+      <x v="501"/>
+    </i>
+    <i>
+      <x v="502"/>
+    </i>
+    <i>
+      <x v="503"/>
+    </i>
+    <i>
+      <x v="504"/>
+    </i>
+    <i>
+      <x v="505"/>
+    </i>
+    <i>
+      <x v="506"/>
+    </i>
+    <i>
+      <x v="507"/>
+    </i>
+    <i>
+      <x v="508"/>
+    </i>
+    <i>
+      <x v="509"/>
+    </i>
+    <i>
+      <x v="510"/>
+    </i>
+    <i>
+      <x v="511"/>
+    </i>
+    <i>
+      <x v="512"/>
+    </i>
+    <i>
+      <x v="513"/>
+    </i>
+    <i>
+      <x v="514"/>
+    </i>
+    <i>
+      <x v="515"/>
+    </i>
+    <i>
+      <x v="516"/>
+    </i>
+    <i t="grand">
+      <x v="517"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i t="grand">
+      <x v="0"/>
+    </i>
+  </colItems>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
@@ -17875,7 +21419,7 @@
       <selection pane="topLeft" activeCell="C101" activeCellId="0" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.35"/>
@@ -26313,13 +29857,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E602"/>
+  <dimension ref="A1:E519"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.26"/>
   </cols>
@@ -32161,89 +35705,6 @@
       <c r="D519" s="21"/>
       <c r="E519" s="22"/>
     </row>
-    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -32261,13 +35722,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E602"/>
+  <dimension ref="A1:E519"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C240" activeCellId="0" sqref="C240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -38098,89 +41559,6 @@
       <c r="D519" s="21"/>
       <c r="E519" s="22"/>
     </row>
-    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -38203,7 +41581,7 @@
       <selection pane="topLeft" activeCell="F598" activeCellId="0" sqref="F598"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.53"/>
@@ -45350,11 +48728,11 @@
   </sheetPr>
   <dimension ref="A1:H603"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A579" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G597" activeCellId="0" sqref="G597"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.05"/>
